--- a/excel_data/weight_data.xlsx
+++ b/excel_data/weight_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilhy\Desktop\대회\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyoungwook/2022-2/EL경진대회_알고리즘/code/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47958F12-8D97-4E92-9335-0820D3B7337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12825A-3278-B24D-BC52-6C941C3FAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DACAB8F-7E27-42EB-86C1-7439DA5CFC4A}"/>
+    <workbookView xWindow="15240" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{3DACAB8F-7E27-42EB-86C1-7439DA5CFC4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,16 +526,16 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -630,127 +630,1432 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+      <c r="S2">
+        <v>9</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>9</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>8</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>6</v>
+      </c>
+      <c r="AB2">
+        <v>3</v>
+      </c>
+      <c r="AC2">
+        <v>7</v>
+      </c>
+      <c r="AD2">
+        <v>4</v>
+      </c>
+      <c r="AE2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>12</v>
+      </c>
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3">
+        <v>16</v>
+      </c>
+      <c r="T3">
+        <v>14</v>
+      </c>
+      <c r="U3">
+        <v>12</v>
+      </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <v>15</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>10</v>
+      </c>
+      <c r="AC3">
+        <v>14</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>16</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
+      </c>
+      <c r="T4">
+        <v>14</v>
+      </c>
+      <c r="U4">
+        <v>14</v>
+      </c>
+      <c r="V4">
+        <v>16</v>
+      </c>
+      <c r="W4">
+        <v>11</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
+        <v>14</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4">
+        <v>5</v>
+      </c>
+      <c r="AB4">
+        <v>9</v>
+      </c>
+      <c r="AC4">
+        <v>13</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>13</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>9</v>
+      </c>
+      <c r="W5">
+        <v>16</v>
+      </c>
+      <c r="X5">
+        <v>6</v>
+      </c>
+      <c r="Y5">
+        <v>8</v>
+      </c>
+      <c r="Z5">
+        <v>9</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>7</v>
+      </c>
+      <c r="AD5">
+        <v>9</v>
+      </c>
+      <c r="AE5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <v>7</v>
+      </c>
+      <c r="AE6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>10</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>8</v>
+      </c>
+      <c r="AB7">
+        <v>4</v>
+      </c>
+      <c r="AC7">
+        <v>8</v>
+      </c>
+      <c r="AD7">
+        <v>8</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <v>12</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <v>13</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>14</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
+        <v>11</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>6</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AD9">
+        <v>7</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>7</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>8</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>7</v>
+      </c>
+      <c r="AD11">
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>7</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <v>6</v>
+      </c>
+      <c r="AC12">
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>10</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AD14">
+        <v>6</v>
+      </c>
+      <c r="AE14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>7</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
+        <v>8</v>
+      </c>
+      <c r="AA16">
+        <v>8</v>
+      </c>
+      <c r="AB16">
+        <v>5</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AD16">
+        <v>9</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -758,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -766,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -774,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -782,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -790,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -798,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -806,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -814,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -822,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -830,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -838,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -846,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -854,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -862,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>29</v>
       </c>

--- a/excel_data/weight_data.xlsx
+++ b/excel_data/weight_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyoungwook/2022-2/EL경진대회_알고리즘/code/excel_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyoungwook/2022-2/EL경진대회_알고리즘/SSU_navigation/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12825A-3278-B24D-BC52-6C941C3FAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5E7D5-B8E6-484C-81A5-3ACEFD2CAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15240" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{3DACAB8F-7E27-42EB-86C1-7439DA5CFC4A}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CF32B9-7E42-49F9-94EC-6FB532AA3761}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2059,8 +2059,95 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
       <c r="Q17">
         <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <v>8</v>
+      </c>
+      <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>9</v>
+      </c>
+      <c r="AE17">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:31">

--- a/excel_data/weight_data.xlsx
+++ b/excel_data/weight_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyoungwook/2022-2/EL경진대회_알고리즘/SSU_navigation/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF5E7D5-B8E6-484C-81A5-3ACEFD2CAFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F28D2-4987-C440-9231-197344D5052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15240" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{3DACAB8F-7E27-42EB-86C1-7439DA5CFC4A}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CF32B9-7E42-49F9-94EC-6FB532AA3761}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2154,56 +2154,665 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
       <c r="R18">
         <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+      <c r="Z18">
+        <v>9</v>
+      </c>
+      <c r="AA18">
+        <v>10</v>
+      </c>
+      <c r="AB18">
+        <v>6</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
       <c r="S19">
         <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>6</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+      <c r="AA19">
+        <v>7</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
       <c r="T20">
         <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="X20">
+        <v>6</v>
+      </c>
+      <c r="Y20">
+        <v>4</v>
+      </c>
+      <c r="Z20">
+        <v>9</v>
+      </c>
+      <c r="AA20">
+        <v>9</v>
+      </c>
+      <c r="AB20">
+        <v>6</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
+        <v>8</v>
+      </c>
+      <c r="AE20">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
       <c r="U21">
         <v>0</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>9</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
+      </c>
+      <c r="AA21">
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <v>3</v>
+      </c>
+      <c r="AC21">
+        <v>2</v>
+      </c>
+      <c r="AD21">
+        <v>7</v>
+      </c>
+      <c r="AE21">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
       <c r="V22">
         <v>0</v>
+      </c>
+      <c r="W22">
+        <v>7</v>
+      </c>
+      <c r="X22">
+        <v>7</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>10</v>
+      </c>
+      <c r="AA22">
+        <v>8</v>
+      </c>
+      <c r="AB22">
+        <v>4</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>11</v>
+      </c>
+      <c r="AE22">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
+      </c>
       <c r="W23">
         <v>0</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>5</v>
+      </c>
+      <c r="Z23">
+        <v>4</v>
+      </c>
+      <c r="AA23">
+        <v>7</v>
+      </c>
+      <c r="AB23">
+        <v>3</v>
+      </c>
+      <c r="AC23">
+        <v>4</v>
+      </c>
+      <c r="AD23">
+        <v>6</v>
+      </c>
+      <c r="AE23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>4</v>
+      </c>
+      <c r="V24">
+        <v>9</v>
+      </c>
+      <c r="W24">
+        <v>9</v>
+      </c>
       <c r="X24">
         <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
+        <v>6</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:31">

--- a/excel_data/weight_data.xlsx
+++ b/excel_data/weight_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyoungwook/2022-2/EL경진대회_알고리즘/SSU_navigation/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F28D2-4987-C440-9231-197344D5052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B5D896-1AAF-9E45-B95C-37438B3BA59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15240" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{3DACAB8F-7E27-42EB-86C1-7439DA5CFC4A}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CF32B9-7E42-49F9-94EC-6FB532AA3761}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2819,53 +2819,662 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>7</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>8</v>
+      </c>
+      <c r="X25">
+        <v>6</v>
+      </c>
       <c r="Y25">
         <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>9</v>
+      </c>
+      <c r="AA25">
+        <v>7</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>10</v>
+      </c>
+      <c r="AE25">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+      <c r="R26">
+        <v>11</v>
+      </c>
+      <c r="S26">
+        <v>11</v>
+      </c>
+      <c r="T26">
+        <v>9</v>
+      </c>
+      <c r="U26">
+        <v>7</v>
+      </c>
+      <c r="V26">
+        <v>12</v>
+      </c>
+      <c r="W26">
+        <v>7</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>10</v>
+      </c>
       <c r="Z26">
         <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>8</v>
+      </c>
+      <c r="AB26">
+        <v>6</v>
+      </c>
+      <c r="AC26">
+        <v>9</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>11</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>12</v>
+      </c>
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="T27">
+        <v>9</v>
+      </c>
+      <c r="U27">
+        <v>9</v>
+      </c>
+      <c r="V27">
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>15</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>9</v>
+      </c>
+      <c r="Z27">
+        <v>9</v>
+      </c>
       <c r="AA27">
         <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>4</v>
+      </c>
+      <c r="AC27">
+        <v>8</v>
+      </c>
+      <c r="AD27">
+        <v>7</v>
+      </c>
+      <c r="AE27">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>7</v>
+      </c>
+      <c r="Q28">
+        <v>8</v>
+      </c>
+      <c r="R28">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28">
+        <v>4</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>5</v>
+      </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
       <c r="AB28">
         <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28">
+        <v>7</v>
+      </c>
+      <c r="AE28">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>9</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>8</v>
+      </c>
+      <c r="AA29">
+        <v>6</v>
+      </c>
+      <c r="AB29">
+        <v>3</v>
+      </c>
       <c r="AC29">
         <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>9</v>
+      </c>
+      <c r="AE29">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <v>11</v>
+      </c>
+      <c r="Q30">
+        <v>10</v>
+      </c>
+      <c r="R30">
+        <v>11</v>
+      </c>
+      <c r="S30">
+        <v>12</v>
+      </c>
+      <c r="T30">
+        <v>10</v>
+      </c>
+      <c r="U30">
+        <v>9</v>
+      </c>
+      <c r="V30">
+        <v>13</v>
+      </c>
+      <c r="W30">
+        <v>7</v>
+      </c>
+      <c r="X30">
+        <v>5</v>
+      </c>
+      <c r="Y30">
+        <v>12</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>6</v>
+      </c>
+      <c r="AB30">
+        <v>7</v>
+      </c>
+      <c r="AC30">
+        <v>11</v>
+      </c>
       <c r="AD30">
         <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>29</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>9</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <v>9</v>
+      </c>
+      <c r="V31">
+        <v>9</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31">
+        <v>10</v>
+      </c>
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AA31">
+        <v>10</v>
+      </c>
+      <c r="AB31">
+        <v>7</v>
+      </c>
+      <c r="AC31">
+        <v>11</v>
+      </c>
+      <c r="AD31">
+        <v>4</v>
       </c>
       <c r="AE31">
         <v>0</v>

--- a/excel_data/weight_data.xlsx
+++ b/excel_data/weight_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyoungwook/2022-2/EL경진대회_알고리즘/SSU_navigation/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B5D896-1AAF-9E45-B95C-37438B3BA59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE2049-C2DC-3848-9DA0-3D81C64405BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{3DACAB8F-7E27-42EB-86C1-7439DA5CFC4A}"/>
+    <workbookView xWindow="14080" yWindow="760" windowWidth="15000" windowHeight="17260" xr2:uid="{3DACAB8F-7E27-42EB-86C1-7439DA5CFC4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,129 +36,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
-    <t>베어드홀</t>
+    <t>source/destination</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>숭덕경상관</t>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문화관</t>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안익태기념관</t>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>형남공학관</t>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교육관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백마관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한경직기념관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신양관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤처중소기업센터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진리관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조만식기념관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국기독교박물관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중앙도서관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창신관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌브레인홀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레지던스홀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전산관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미래관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보과학관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨스트민스터홀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학생회관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창의관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대운동장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조만식기념관 지하주차장진입로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source/destination</t>
+    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CF32B9-7E42-49F9-94EC-6FB532AA3761}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB40" sqref="AB40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -537,102 +437,102 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Y1">
         <v>24</v>
       </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -726,8 +626,8 @@
       </c>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -821,8 +721,8 @@
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -834,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -916,8 +816,8 @@
       </c>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -926,13 +826,13 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -1011,8 +911,8 @@
       </c>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1024,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1106,8 +1006,8 @@
       </c>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1201,8 +1101,8 @@
       </c>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1296,8 +1196,8 @@
       </c>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1391,8 +1291,8 @@
       </c>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1486,8 +1386,8 @@
       </c>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1581,8 +1481,8 @@
       </c>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1676,8 +1576,8 @@
       </c>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1771,8 +1671,8 @@
       </c>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1866,8 +1766,8 @@
       </c>
     </row>
     <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1961,8 +1861,8 @@
       </c>
     </row>
     <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -2028,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="W16">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X16">
         <v>5</v>
@@ -2056,8 +1956,8 @@
       </c>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2151,8 +2051,8 @@
       </c>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -2246,8 +2146,8 @@
       </c>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -2341,8 +2241,8 @@
       </c>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -2436,8 +2336,8 @@
       </c>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>19</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -2531,8 +2431,8 @@
       </c>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>20</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -2626,8 +2526,8 @@
       </c>
     </row>
     <row r="23" spans="1:31">
-      <c r="A23" t="s">
-        <v>21</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2721,8 +2621,8 @@
       </c>
     </row>
     <row r="24" spans="1:31">
-      <c r="A24" t="s">
-        <v>22</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2816,8 +2716,8 @@
       </c>
     </row>
     <row r="25" spans="1:31">
-      <c r="A25" t="s">
-        <v>23</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2911,8 +2811,8 @@
       </c>
     </row>
     <row r="26" spans="1:31">
-      <c r="A26" t="s">
-        <v>24</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -3007,7 +2907,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -3102,7 +3002,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -3197,7 +3097,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -3292,7 +3192,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3387,7 +3287,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>6</v>

--- a/excel_data/weight_data.xlsx
+++ b/excel_data/weight_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyoungwook/2022-2/EL경진대회_알고리즘/SSU_navigation/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE2049-C2DC-3848-9DA0-3D81C64405BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654B5913-4133-EC41-965E-8A2FDFF36D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14080" yWindow="760" windowWidth="15000" windowHeight="17260" xr2:uid="{3DACAB8F-7E27-42EB-86C1-7439DA5CFC4A}"/>
   </bookViews>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CF32B9-7E42-49F9-94EC-6FB532AA3761}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1857,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -3320,10 +3320,10 @@
         <v>3</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>7</v>
